--- a/TicketBookingDataK.xlsx
+++ b/TicketBookingDataK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WpfTicketBooking1 - kopia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WptTicketBooking1github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2D59DE-A9F6-4566-ABF4-1A47FBF9BBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE543CA1-5BFE-4B30-BD20-119FF84C324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B5DEFB1-BB2A-466C-9D9F-A1A8C6BAB584}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Events" sheetId="2" r:id="rId2"/>
     <sheet name="Bookings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>1234</t>
   </si>
   <si>
     <t>Evenemangsnamn</t>
@@ -95,7 +92,7 @@
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,16 +123,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,58 +450,57 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1" style="3"/>
+    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>1234</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>1234</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>1234</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
+      <c r="B5">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -518,71 +514,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="10.42578125" customWidth="1" style="2"/>
-    <col min="3" max="3" bestFit="1" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="0" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>0.625</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="1">
-        <v>0.708333333333333</v>
+        <v>0.70833333333333304</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -591,63 +586,62 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="10" customWidth="1" style="3"/>
-    <col min="2" max="2" bestFit="1" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" style="6"/>
-    <col min="4" max="4" bestFit="1" width="8.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>0.625</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="1">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/TicketBookingDataK.xlsx
+++ b/TicketBookingDataK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WptTicketBooking1github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE543CA1-5BFE-4B30-BD20-119FF84C324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D474FFB-8189-418D-B45A-859E6E18B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B5DEFB1-BB2A-466C-9D9F-A1A8C6BAB584}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8B5DEFB1-BB2A-466C-9D9F-A1A8C6BAB584}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -62,9 +62,6 @@
     <t>10-12-2023</t>
   </si>
   <si>
-    <t>du</t>
-  </si>
-  <si>
     <t>10-12-2024</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Datum</t>
+  </si>
+  <si>
+    <t>dum</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,10 +543,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>0.625</v>
@@ -554,10 +554,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>0.66666666666666696</v>
@@ -565,10 +565,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>0.70833333333333304</v>
@@ -577,16 +577,16 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
@@ -616,10 +616,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>0.625</v>
@@ -637,6 +637,34 @@
       </c>
       <c r="D3" s="1">
         <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.70833333333333404</v>
       </c>
     </row>
   </sheetData>

--- a/TicketBookingDataK.xlsx
+++ b/TicketBookingDataK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WptTicketBooking1github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D474FFB-8189-418D-B45A-859E6E18B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE13818C-E35E-4B15-96B0-725D12B74B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8B5DEFB1-BB2A-466C-9D9F-A1A8C6BAB584}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B5DEFB1-BB2A-466C-9D9F-A1A8C6BAB584}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
